--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\CARE_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PFS_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ActiveData_SingleUser" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,62 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Type of Credentials</t>
-  </si>
-  <si>
-    <t>QA Env</t>
-  </si>
-  <si>
-    <t>Dev Env</t>
-  </si>
-  <si>
-    <t>https://cft-care-dev.g1.app.cloud.comcast.net/login</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Application URL</t>
   </si>
   <si>
-    <t>Application URLs</t>
-  </si>
-  <si>
-    <t>https://cft-care-qa.g5.app.cloud.comcast.net/login</t>
-  </si>
-  <si>
     <t>https://uat.royalbank.can-act.com</t>
   </si>
   <si>
     <t>Askida2018</t>
   </si>
   <si>
-    <t>UserName_1</t>
-  </si>
-  <si>
-    <t>Password_1</t>
-  </si>
-  <si>
-    <t>UserName_2</t>
-  </si>
-  <si>
-    <t>Password_2</t>
-  </si>
-  <si>
-    <t>33008643-0106</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
     <t>Account Number</t>
   </si>
   <si>
@@ -90,6 +45,21 @@
   </si>
   <si>
     <t>33008208</t>
+  </si>
+  <si>
+    <t>Edit Account Number</t>
+  </si>
+  <si>
+    <t>Pyament Type</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>123481731SL0008</t>
   </si>
 </sst>
 </file>
@@ -133,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,36 +126,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -470,122 +424,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Application URL</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>123481731SL0008</t>
+  </si>
+  <si>
+    <t>PEI - 911 Cost Recovery Fee Return -- PEIRF -- (07PT15-16530)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -142,6 +145,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -424,11 +428,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -480,11 +482,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>33008208</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>122546113</v>
+      </c>
+      <c r="F3" s="4">
+        <v>741258802</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Application URL</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>PEI - 911 Cost Recovery Fee Return -- PEIRF -- (07PT15-16530)</t>
+  </si>
+  <si>
+    <t>741258802</t>
   </si>
 </sst>
 </file>
@@ -135,14 +138,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -430,7 +430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -478,28 +480,28 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>33008208</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>122546113</v>
-      </c>
-      <c r="F3" s="4">
-        <v>741258802</v>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -430,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -465,8 +463,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -478,15 +476,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -498,16 +496,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -430,11 +430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>

--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="ActiveData_SingleUser" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Application URL</t>
   </si>
@@ -38,15 +39,6 @@
     <t>Account Number</t>
   </si>
   <si>
-    <t>123481731SL0002</t>
-  </si>
-  <si>
-    <t>Federal - Softwood Lumber Products Export Chrg -- SLPEX</t>
-  </si>
-  <si>
-    <t>33008208</t>
-  </si>
-  <si>
     <t>Edit Account Number</t>
   </si>
   <si>
@@ -59,20 +51,86 @@
     <t>Password</t>
   </si>
   <si>
-    <t>123481731SL0008</t>
-  </si>
-  <si>
-    <t>PEI - 911 Cost Recovery Fee Return -- PEIRF -- (07PT15-16530)</t>
-  </si>
-  <si>
-    <t>741258802</t>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Pyament Type Space</t>
+  </si>
+  <si>
+    <t>123481731RT1013</t>
+  </si>
+  <si>
+    <t>123481731RT1015</t>
+  </si>
+  <si>
+    <t>Federal - GST/HST  Return and Payment -- GST34 -- (GST34)</t>
+  </si>
+  <si>
+    <t>GST34</t>
+  </si>
+  <si>
+    <t>To be processed</t>
+  </si>
+  <si>
+    <t>2020 Dec 31</t>
+  </si>
+  <si>
+    <t>2019 Dec 01</t>
+  </si>
+  <si>
+    <t>33008206</t>
+  </si>
+  <si>
+    <t>payment_type_search</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ReportingPeriodFrom</t>
+  </si>
+  <si>
+    <t>ReportingPeriodTo</t>
+  </si>
+  <si>
+    <t>2021 Feb 23</t>
+  </si>
+  <si>
+    <t>1034132638TQ0013</t>
+  </si>
+  <si>
+    <t>1034132638TQ0015</t>
+  </si>
+  <si>
+    <t>QUEBEC COMBINED GST/HST + QST REMITTANCE -- G-QST -- (FPZ-500.IF)</t>
+  </si>
+  <si>
+    <t>G-QST</t>
+  </si>
+  <si>
+    <t>9123654789PN0007</t>
+  </si>
+  <si>
+    <t>9123654789PN0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quebec Collection of Support Payments -- RPPAQ -- (PPA-101)</t>
+  </si>
+  <si>
+    <t>RPPAQ</t>
+  </si>
+  <si>
+    <t>Quebec Collection of Support Payments -- RPPAQ -- (PPA-101)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +141,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,24 +182,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,88 +507,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://uat.royalbank.can-act.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveData_SingleUser" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AllPaymentTypes_SingleUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="AllPaymentTypes_MultiUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="192">
   <si>
     <t>Application URL</t>
   </si>
@@ -117,20 +119,499 @@
     <t>9123654789PN0008</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quebec Collection of Support Payments -- RPPAQ -- (PPA-101)</t>
-  </si>
-  <si>
     <t>RPPAQ</t>
   </si>
   <si>
     <t>Quebec Collection of Support Payments -- RPPAQ -- (PPA-101)</t>
+  </si>
+  <si>
+    <t>102546108RC0016</t>
+  </si>
+  <si>
+    <t>102546108RC0018</t>
+  </si>
+  <si>
+    <t>01234-1112226-Askida</t>
+  </si>
+  <si>
+    <t>Federal - Corporation Tax Payments -- TXINS</t>
+  </si>
+  <si>
+    <t>TXINS</t>
+  </si>
+  <si>
+    <t>123481731RT1006</t>
+  </si>
+  <si>
+    <t>2020 Dec 21</t>
+  </si>
+  <si>
+    <t>2020 Dec 01</t>
+  </si>
+  <si>
+    <t>123481731RT1016</t>
+  </si>
+  <si>
+    <t>B and C Schedules</t>
+  </si>
+  <si>
+    <t>Federal Payroll Deductions - Monthly/Quarterly -- EMPTX -- (PD7A)</t>
+  </si>
+  <si>
+    <t>231313131RP0006</t>
+  </si>
+  <si>
+    <t>231313131RP0018</t>
+  </si>
+  <si>
+    <t>EMPTX</t>
+  </si>
+  <si>
+    <t>2020 Jan 15</t>
+  </si>
+  <si>
+    <t>DateYearToEmployees</t>
+  </si>
+  <si>
+    <t>DateMonthNoToEmployees</t>
+  </si>
+  <si>
+    <t>NumberEmployees</t>
+  </si>
+  <si>
+    <t>Federal - Personal Tax Instalment -- TXINS</t>
+  </si>
+  <si>
+    <t>12345 - 6789014 - Askida</t>
+  </si>
+  <si>
+    <t>33008203</t>
+  </si>
+  <si>
+    <t>41068043</t>
+  </si>
+  <si>
+    <t>ABLPG</t>
+  </si>
+  <si>
+    <t>Alberta Finance - Propane Tax Collectors -- ABLPG -- (AT 360)</t>
+  </si>
+  <si>
+    <t>Alberta Finance - Carbon Levy -- ABCL</t>
+  </si>
+  <si>
+    <t>ABCL</t>
+  </si>
+  <si>
+    <t>Saskatchewan Liquor Consumption Tax -- SKLQR -- (FI-1244)</t>
+  </si>
+  <si>
+    <t>SKLQR</t>
+  </si>
+  <si>
+    <t>102546108RD0023</t>
+  </si>
+  <si>
+    <t>102546108RD0024</t>
+  </si>
+  <si>
+    <t>FDEXD</t>
+  </si>
+  <si>
+    <t>Federal - Excise Duty -- FDEXD</t>
+  </si>
+  <si>
+    <t>https://uat.tdbanktax.can-act.com</t>
+  </si>
+  <si>
+    <t>https://uat.cibc.can-act.com</t>
+  </si>
+  <si>
+    <t>106503193</t>
+  </si>
+  <si>
+    <t>Askida2019</t>
+  </si>
+  <si>
+    <t>123131005</t>
+  </si>
+  <si>
+    <t>123131021</t>
+  </si>
+  <si>
+    <t>Period Ending</t>
+  </si>
+  <si>
+    <t>2020 Dec 15</t>
+  </si>
+  <si>
+    <t>103413263</t>
+  </si>
+  <si>
+    <t>103413265</t>
+  </si>
+  <si>
+    <t>2131001</t>
+  </si>
+  <si>
+    <t>2131555</t>
+  </si>
+  <si>
+    <t>2021 Feb 25</t>
+  </si>
+  <si>
+    <t>askida2019</t>
+  </si>
+  <si>
+    <t>102546108RT0005</t>
+  </si>
+  <si>
+    <t>102546108RT0007</t>
+  </si>
+  <si>
+    <t>Askida</t>
+  </si>
+  <si>
+    <t>nickName_1</t>
+  </si>
+  <si>
+    <t>nickName_2</t>
+  </si>
+  <si>
+    <t>Axon</t>
+  </si>
+  <si>
+    <t>Federal - GST/HST Payment only -- GST-P -- (GST-P)</t>
+  </si>
+  <si>
+    <t>GST-P</t>
+  </si>
+  <si>
+    <t>5921314151ST0001</t>
+  </si>
+  <si>
+    <t>4221314188ST0001</t>
+  </si>
+  <si>
+    <t>Quebec - CNESST Payment -- CSST -- (TPZ-1015.R.14.5)</t>
+  </si>
+  <si>
+    <t>Quebec - CNESST Payment -- CSST  -- (TPZ-1015.R.14.5)</t>
+  </si>
+  <si>
+    <t>CSST</t>
+  </si>
+  <si>
+    <t>123481731RP1005</t>
+  </si>
+  <si>
+    <t>123481731RP1007</t>
+  </si>
+  <si>
+    <t>Federal Payroll Deductions - Threshold 2 -- EMPTX -- (PD7A-RB)</t>
+  </si>
+  <si>
+    <t>2020 Jan 06</t>
+  </si>
+  <si>
+    <t>DatePaymentMadeEmployees</t>
+  </si>
+  <si>
+    <t>102546108RP0009</t>
+  </si>
+  <si>
+    <t>123481731RP1008</t>
+  </si>
+  <si>
+    <t>Federal Payroll Deductions - Arrears -- EMPTX -- (PD7D)</t>
+  </si>
+  <si>
+    <t>https://uat.scotiabank.can-act.com</t>
+  </si>
+  <si>
+    <t>23009871</t>
+  </si>
+  <si>
+    <t>7412588</t>
+  </si>
+  <si>
+    <t>1472588</t>
+  </si>
+  <si>
+    <t>SKTAX</t>
+  </si>
+  <si>
+    <t>Saskatchewan Provincial Sales Tax -- SKTAX -- (FI-1241)</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>https://pfs.aptdev.ca/pfs-webapp/login.xhtml</t>
+  </si>
+  <si>
+    <t>100011-0101</t>
+  </si>
+  <si>
+    <t>122546105</t>
+  </si>
+  <si>
+    <t>102546105</t>
+  </si>
+  <si>
+    <t>Alberta Finance - 911 Levy -- AB911</t>
+  </si>
+  <si>
+    <t>AB911</t>
+  </si>
+  <si>
+    <t>1.1.17 BNS</t>
+  </si>
+  <si>
+    <t>Federal - Softwood Lumber Products Export Chrg -- SLPEX</t>
+  </si>
+  <si>
+    <t>123481731SL0023</t>
+  </si>
+  <si>
+    <t>123481731SL0024</t>
+  </si>
+  <si>
+    <t>SLPEX</t>
+  </si>
+  <si>
+    <t>33008208</t>
+  </si>
+  <si>
+    <t>1044524585TQ1005</t>
+  </si>
+  <si>
+    <t>Quebec QST Remittance -- QST -- (VDZ-471)</t>
+  </si>
+  <si>
+    <t>1044524585TQ1205</t>
+  </si>
+  <si>
+    <t>QST</t>
+  </si>
+  <si>
+    <t>122546113</t>
+  </si>
+  <si>
+    <t>741258802</t>
+  </si>
+  <si>
+    <t>PEI - 911 Cost Recovery Fee Return -- PEIRF -- (07PT15-16530)</t>
+  </si>
+  <si>
+    <t>PEIRF</t>
+  </si>
+  <si>
+    <t>1.1.20 address is edited here
+need to look twice to modify this script</t>
+  </si>
+  <si>
+    <t>122546112</t>
+  </si>
+  <si>
+    <t>122546123</t>
+  </si>
+  <si>
+    <t>ABINS</t>
+  </si>
+  <si>
+    <t>2019 Dec 21</t>
+  </si>
+  <si>
+    <t>Alberta Finance - Insurance Corporations Tax -- ABINS -- (AT 2095)</t>
+  </si>
+  <si>
+    <t>1.1.21.RBC</t>
+  </si>
+  <si>
+    <t>10341326380001</t>
+  </si>
+  <si>
+    <t>10341326380002</t>
+  </si>
+  <si>
+    <t>PAY</t>
+  </si>
+  <si>
+    <t>Quebec Payroll Source Deductions - Weekly -- PAY -- (TPZ-1015.R.14.3)</t>
+  </si>
+  <si>
+    <t>Quebec Payroll Source Deductions - Weekly -- PAY   -- (TPZ-1015.R.14.3)</t>
+  </si>
+  <si>
+    <t>1.1.22. KEBOC</t>
+  </si>
+  <si>
+    <t>https://uat.kebcanada.can-act.com</t>
+  </si>
+  <si>
+    <t>710000812</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>Alberta Teacher's Association Payment -- ATA</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>1.1.23. KEBOC</t>
+  </si>
+  <si>
+    <t>321456986</t>
+  </si>
+  <si>
+    <t>987563215</t>
+  </si>
+  <si>
+    <t>ABOMC</t>
+  </si>
+  <si>
+    <t>Alberta Finance - Fuel Tax Collectors -- ABOMC -- (AT 362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberta Teacher's Association Payment -- ATA  </t>
+  </si>
+  <si>
+    <t>1.1.24. KEBOC</t>
+  </si>
+  <si>
+    <t>12254618520003</t>
+  </si>
+  <si>
+    <t>12254618520005</t>
+  </si>
+  <si>
+    <t>Quebec Payroll Source Deductions - Twice Monthly -- PAY -- (TPZ-1015.R.14.2)</t>
+  </si>
+  <si>
+    <t>Quebec Payroll Source Deductions - Twice Monthly -- PAY   -- (TPZ-1015.R.14.2)</t>
+  </si>
+  <si>
+    <t>1236548</t>
+  </si>
+  <si>
+    <t>1238521</t>
+  </si>
+  <si>
+    <t>Family Resp. Office - Ontario Payment -- MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Resp. Office - Ontario Payment -- MAG    </t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>QST Date</t>
+  </si>
+  <si>
+    <t>2020 Jul 1</t>
+  </si>
+  <si>
+    <t>2019 Dec 1</t>
+  </si>
+  <si>
+    <t>33011435</t>
+  </si>
+  <si>
+    <t>1.1.27</t>
+  </si>
+  <si>
+    <t>159369</t>
+  </si>
+  <si>
+    <t>159357</t>
+  </si>
+  <si>
+    <t>PEI - Wholesale Tobacco Vendors Return -- PEITR -- (05PT15-10616)</t>
+  </si>
+  <si>
+    <t>PEITR</t>
+  </si>
+  <si>
+    <t>8521478</t>
+  </si>
+  <si>
+    <t>8521852</t>
+  </si>
+  <si>
+    <t>Ontario Corporation Tax -- ONCT -- (0626)</t>
+  </si>
+  <si>
+    <t>Ontario Corporation Tax -- ONCT  -- (0626)</t>
+  </si>
+  <si>
+    <t>ONCT</t>
+  </si>
+  <si>
+    <t>421318882RE0005</t>
+  </si>
+  <si>
+    <t>Federal - Excise Tax -- FDEXT</t>
+  </si>
+  <si>
+    <t>421314188RE0001</t>
+  </si>
+  <si>
+    <t>FDEXT</t>
+  </si>
+  <si>
+    <t>Check from Askida</t>
+  </si>
+  <si>
+    <t>1.1.29</t>
+  </si>
+  <si>
+    <t>UserName_2</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>1.1.1x RBC</t>
+  </si>
+  <si>
+    <t>231313131RP0023</t>
+  </si>
+  <si>
+    <t>2021 Feb 1</t>
+  </si>
+  <si>
+    <t>231313131RP0024</t>
+  </si>
+  <si>
+    <t>231313131</t>
+  </si>
+  <si>
+    <t>231313135</t>
+  </si>
+  <si>
+    <t>Script is failing.
+Reason of not fixing: System busy</t>
+  </si>
+  <si>
+    <t>System Busy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +626,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +652,38 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -195,12 +719,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -223,8 +808,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -507,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,12 +1342,16 @@
     <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,75 +1370,109 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="O1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="41"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://uat.royalbank.can-act.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="A17:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,12 +1488,1623 @@
     <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+    </row>
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>2019</v>
+      </c>
+      <c r="P7" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+    </row>
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="5"/>
+      <c r="S11" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="P15" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+    </row>
+    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="59"/>
+    </row>
+    <row r="21" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+    </row>
+    <row r="26" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://uat.royalbank.can-act.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,296 +3123,1021 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="O1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76">
+        <v>2019</v>
+      </c>
+      <c r="P3" s="17">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="Q3" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="I4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="5"/>
+      <c r="S7" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="59"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -955,4 +4145,273 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="https://uat.royalbank.can-act.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/PFSTestData.xlsx
+++ b/PFSTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveData_SingleUser" sheetId="1" r:id="rId1"/>
@@ -2018,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AG2"/>
     </sheetView>
   </sheetViews>
@@ -2226,9 +2226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:AG57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
